--- a/data/nzd0488/nzd0488.xlsx
+++ b/data/nzd0488/nzd0488.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G437"/>
+  <dimension ref="A1:G441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11472,6 +11472,114 @@
       <c r="G437" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>313.2676470588235</v>
+      </c>
+      <c r="C438" t="n">
+        <v>308.36</v>
+      </c>
+      <c r="D438" t="n">
+        <v>297.18</v>
+      </c>
+      <c r="E438" t="n">
+        <v>295.5614285714286</v>
+      </c>
+      <c r="F438" t="n">
+        <v>304.4457142857143</v>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>312.1535294117647</v>
+      </c>
+      <c r="C439" t="n">
+        <v>323.25</v>
+      </c>
+      <c r="D439" t="n">
+        <v>322.51</v>
+      </c>
+      <c r="E439" t="n">
+        <v>309.6542857142857</v>
+      </c>
+      <c r="F439" t="n">
+        <v>305.1871428571428</v>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>316.6494117647059</v>
+      </c>
+      <c r="C440" t="n">
+        <v>328.66</v>
+      </c>
+      <c r="D440" t="n">
+        <v>331.47</v>
+      </c>
+      <c r="E440" t="n">
+        <v>314.7685714285714</v>
+      </c>
+      <c r="F440" t="n">
+        <v>310.4242857142857</v>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:14:45+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>312.1523529411764</v>
+      </c>
+      <c r="C441" t="n">
+        <v>320.1</v>
+      </c>
+      <c r="D441" t="n">
+        <v>325.52</v>
+      </c>
+      <c r="E441" t="n">
+        <v>310.3385714285715</v>
+      </c>
+      <c r="F441" t="n">
+        <v>310.0242857142857</v>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -11486,7 +11594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B567"/>
+  <dimension ref="A1:B573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17164,6 +17272,66 @@
       </c>
       <c r="B567" t="n">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -17332,28 +17500,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.422813008026788</v>
+        <v>1.44026038288484</v>
       </c>
       <c r="J2" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K2" t="n">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09619417215079928</v>
+        <v>0.1005854613435115</v>
       </c>
       <c r="M2" t="n">
-        <v>23.59096761407809</v>
+        <v>23.37664452805736</v>
       </c>
       <c r="N2" t="n">
-        <v>870.1303958666991</v>
+        <v>859.7339756559147</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49797274164276</v>
+        <v>29.32122056899942</v>
       </c>
       <c r="P2" t="n">
-        <v>270.7688016530724</v>
+        <v>270.5777627655701</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -17409,28 +17577,28 @@
         <v>0.0266</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3981963316109141</v>
+        <v>0.4283815081736382</v>
       </c>
       <c r="J3" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K3" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02622078992961052</v>
+        <v>0.03057181774372209</v>
       </c>
       <c r="M3" t="n">
-        <v>12.56080912299389</v>
+        <v>12.53870151916139</v>
       </c>
       <c r="N3" t="n">
-        <v>260.671486381406</v>
+        <v>260.262175804732</v>
       </c>
       <c r="O3" t="n">
-        <v>16.14532397883071</v>
+        <v>16.13264317477865</v>
       </c>
       <c r="P3" t="n">
-        <v>296.779459315679</v>
+        <v>296.437236960855</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -17486,28 +17654,28 @@
         <v>0.0254</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3177067379629306</v>
+        <v>0.3493287077543757</v>
       </c>
       <c r="J4" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K4" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01232327615245232</v>
+        <v>0.01499672024806642</v>
       </c>
       <c r="M4" t="n">
-        <v>14.32527107595438</v>
+        <v>14.33666091059564</v>
       </c>
       <c r="N4" t="n">
-        <v>368.6605293287284</v>
+        <v>368.8485405594658</v>
       </c>
       <c r="O4" t="n">
-        <v>19.20053461049271</v>
+        <v>19.20542997590696</v>
       </c>
       <c r="P4" t="n">
-        <v>296.1869785201496</v>
+        <v>295.8351306319184</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -17563,28 +17731,28 @@
         <v>0.0375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3473756177139485</v>
+        <v>0.3706679188034764</v>
       </c>
       <c r="J5" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K5" t="n">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02316493775234685</v>
+        <v>0.02658080348671676</v>
       </c>
       <c r="M5" t="n">
-        <v>11.56647691302621</v>
+        <v>11.55324308952703</v>
       </c>
       <c r="N5" t="n">
-        <v>227.7742939632628</v>
+        <v>227.2690126584146</v>
       </c>
       <c r="O5" t="n">
-        <v>15.092193146235</v>
+        <v>15.07544402856561</v>
       </c>
       <c r="P5" t="n">
-        <v>287.3868084665456</v>
+        <v>287.1235674011162</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -17640,28 +17808,28 @@
         <v>0.1134</v>
       </c>
       <c r="I6" t="n">
-        <v>1.269833541281669</v>
+        <v>1.329143903657987</v>
       </c>
       <c r="J6" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K6" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03952871360367405</v>
+        <v>0.04396979429528614</v>
       </c>
       <c r="M6" t="n">
-        <v>32.47983273810298</v>
+        <v>32.29127303944711</v>
       </c>
       <c r="N6" t="n">
-        <v>1665.28220372516</v>
+        <v>1652.689768514</v>
       </c>
       <c r="O6" t="n">
-        <v>40.80786938477871</v>
+        <v>40.65328730267701</v>
       </c>
       <c r="P6" t="n">
-        <v>251.344431064185</v>
+        <v>250.6659701216471</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -17698,7 +17866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G437"/>
+  <dimension ref="A1:G441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32335,6 +32503,154 @@
         </is>
       </c>
     </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>-45.39126023337335,170.86411459781377</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>-45.39097762844934,170.8632398384473</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>-45.39083711978456,170.86226151349524</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>-45.39088468148675,170.8613022436839</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>-45.39107788351891,170.8604125170174</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>-45.391250963054475,170.86412001393373</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>-45.391107989219805,170.86319591935035</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>-45.391065044161664,170.8622620001756</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>-45.39101061680923,170.86132335093356</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>-45.39108446980396,170.8604140257647</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>-45.39128837226439,170.86409815784825</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>-45.39115535333545,170.86317996212412</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>-45.39114566802143,170.8622621723223</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>-45.391056318628074,170.861331010757</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>-45.39113099257979,170.86042468293678</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:14:45+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>-45.39125095326534,170.86412001965294</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>-45.39108041122129,170.86320521051346</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>-45.39109212873967,170.86226205800656</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>-45.39101673166156,170.86132437580878</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>-45.39112743928543,170.86042386896779</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0488/nzd0488.xlsx
+++ b/data/nzd0488/nzd0488.xlsx
@@ -17345,7 +17345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17436,35 +17436,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -17523,27 +17528,28 @@
       <c r="P2" t="n">
         <v>270.5777627655701</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.86563743102786 -45.38865359277318, 170.86135686899587 -45.395979963197206)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.8656374310279</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.38865359277318</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.8613568689959</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.39597996319721</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.8634971500119</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.39231677798519</v>
       </c>
     </row>
@@ -17600,27 +17606,28 @@
       <c r="P3" t="n">
         <v>296.437236960855</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.86414932008827 -45.38827795582429, 170.8615523752155 -45.39598589076489)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.8641493200883</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.38827795582429</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.8615523752155</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.39598589076489</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.8628508476519</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.39213192329459</v>
       </c>
     </row>
@@ -17677,27 +17684,28 @@
       <c r="P4" t="n">
         <v>295.8351306319184</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.8622558013736 -45.38816303441801, 170.8622727110684 -45.39608475393808)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.8622558013736</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.38816303441801</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.8622727110684</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.39608475393808</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.862264256221</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.39212389417804</v>
       </c>
     </row>
@@ -17754,27 +17762,28 @@
       <c r="P5" t="n">
         <v>287.1235674011162</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.86085959268925 -45.3882435109294, 170.8621782152522 -45.39611069738403)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.8608595926893</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.3882435109294</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.8621782152522</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.39611069738403</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.8615189039707</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.39217710415672</v>
       </c>
     </row>
@@ -17831,27 +17840,28 @@
       <c r="P6" t="n">
         <v>250.6659701216471</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.85979302188827 -45.38837341862045, 170.8615846204049 -45.396194151871235)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.8597930218883</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.38837341862045</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.8615846204049</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.39619415187124</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.8606888211466</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.39228378524584</v>
       </c>
     </row>

--- a/data/nzd0488/nzd0488.xlsx
+++ b/data/nzd0488/nzd0488.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G441"/>
+  <dimension ref="A1:G446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11578,6 +11578,137 @@
         <v>310.0242857142857</v>
       </c>
       <c r="G441" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>321.08</v>
+      </c>
+      <c r="C442" t="n">
+        <v>322.06</v>
+      </c>
+      <c r="D442" t="n">
+        <v>320.1</v>
+      </c>
+      <c r="E442" t="n">
+        <v>311.7128571428572</v>
+      </c>
+      <c r="F442" t="n">
+        <v>313.2814285714285</v>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:03+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>317.3388235294117</v>
+      </c>
+      <c r="C443" t="n">
+        <v>336.9299999999999</v>
+      </c>
+      <c r="D443" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="E443" t="n">
+        <v>312.1185714285714</v>
+      </c>
+      <c r="F443" t="n">
+        <v>306.0242857142857</v>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:52+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>299.2947058823529</v>
+      </c>
+      <c r="C444" t="n">
+        <v>327.68</v>
+      </c>
+      <c r="D444" t="n">
+        <v>326.28</v>
+      </c>
+      <c r="E444" t="n">
+        <v>305.3728571428572</v>
+      </c>
+      <c r="F444" t="n">
+        <v>287.3214285714286</v>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>340.33</v>
+      </c>
+      <c r="C445" t="n">
+        <v>333.87</v>
+      </c>
+      <c r="D445" t="n">
+        <v>328.84</v>
+      </c>
+      <c r="E445" t="n">
+        <v>319.1257142857143</v>
+      </c>
+      <c r="F445" t="n">
+        <v>313.1828571428572</v>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>325.3017647058824</v>
+      </c>
+      <c r="C446" t="n">
+        <v>306.03</v>
+      </c>
+      <c r="D446" t="n">
+        <v>294.1</v>
+      </c>
+      <c r="E446" t="inlineStr"/>
+      <c r="F446" t="inlineStr"/>
+      <c r="G446" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11594,7 +11725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B573"/>
+  <dimension ref="A1:B580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17332,6 +17463,76 @@
       </c>
       <c r="B573" t="n">
         <v>0.33</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2025-04-02 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>-0.9</v>
       </c>
     </row>
   </sheetData>
@@ -17505,28 +17706,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.44026038288484</v>
+        <v>1.482468161255932</v>
       </c>
       <c r="J2" t="n">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="K2" t="n">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1005854613435115</v>
+        <v>0.1083881023024903</v>
       </c>
       <c r="M2" t="n">
-        <v>23.37664452805736</v>
+        <v>23.26253403642105</v>
       </c>
       <c r="N2" t="n">
-        <v>859.7339756559147</v>
+        <v>851.681893320991</v>
       </c>
       <c r="O2" t="n">
-        <v>29.32122056899942</v>
+        <v>29.1835894523102</v>
       </c>
       <c r="P2" t="n">
-        <v>270.5777627655701</v>
+        <v>270.1107289942539</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17583,28 +17784,28 @@
         <v>0.0266</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4283815081736382</v>
+        <v>0.4784854840472278</v>
       </c>
       <c r="J3" t="n">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="K3" t="n">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03057181774372209</v>
+        <v>0.03801076709134732</v>
       </c>
       <c r="M3" t="n">
-        <v>12.53870151916139</v>
+        <v>12.57670514030883</v>
       </c>
       <c r="N3" t="n">
-        <v>260.262175804732</v>
+        <v>262.5455281592798</v>
       </c>
       <c r="O3" t="n">
-        <v>16.13264317477865</v>
+        <v>16.20325671460154</v>
       </c>
       <c r="P3" t="n">
-        <v>296.437236960855</v>
+        <v>295.8645047536879</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17661,28 +17862,28 @@
         <v>0.0254</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3493287077543757</v>
+        <v>0.390869391389199</v>
       </c>
       <c r="J4" t="n">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="K4" t="n">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01499672024806642</v>
+        <v>0.01888271623623372</v>
       </c>
       <c r="M4" t="n">
-        <v>14.33666091059564</v>
+        <v>14.37338925150451</v>
       </c>
       <c r="N4" t="n">
-        <v>368.8485405594658</v>
+        <v>369.8693606510764</v>
       </c>
       <c r="O4" t="n">
-        <v>19.20542997590696</v>
+        <v>19.23198795369517</v>
       </c>
       <c r="P4" t="n">
-        <v>295.8351306319184</v>
+        <v>295.3699113502749</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17739,28 +17940,28 @@
         <v>0.0375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3706679188034764</v>
+        <v>0.4020095072449587</v>
       </c>
       <c r="J5" t="n">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="K5" t="n">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02658080348671676</v>
+        <v>0.0313613100740785</v>
       </c>
       <c r="M5" t="n">
-        <v>11.55324308952703</v>
+        <v>11.57052112080819</v>
       </c>
       <c r="N5" t="n">
-        <v>227.2690126584146</v>
+        <v>227.555992037434</v>
       </c>
       <c r="O5" t="n">
-        <v>15.07544402856561</v>
+        <v>15.08495913277308</v>
       </c>
       <c r="P5" t="n">
-        <v>287.1235674011162</v>
+        <v>286.7665579511656</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17817,28 +18018,28 @@
         <v>0.1134</v>
       </c>
       <c r="I6" t="n">
-        <v>1.329143903657987</v>
+        <v>1.378656933066723</v>
       </c>
       <c r="J6" t="n">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="K6" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04396979429528614</v>
+        <v>0.04806122801089341</v>
       </c>
       <c r="M6" t="n">
-        <v>32.29127303944711</v>
+        <v>32.07433285442807</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.689768514</v>
+        <v>1639.805837103999</v>
       </c>
       <c r="O6" t="n">
-        <v>40.65328730267701</v>
+        <v>40.49451613618811</v>
       </c>
       <c r="P6" t="n">
-        <v>250.6659701216471</v>
+        <v>250.0948974777407</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17876,7 +18077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G441"/>
+  <dimension ref="A1:G446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32661,6 +32862,183 @@
         </is>
       </c>
     </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>-45.39132523817205,170.8640766191518</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>-45.39109757086493,170.86319942934642</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>-45.39104335850278,170.86226195387212</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>-45.391029012429684,170.86132643411815</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>-45.39115637325355,170.8604304970036</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:03+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>-45.39129410870176,170.8640948063695</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>-45.39122775651552,170.86315556904574</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>-45.3911756320226,170.86226223629996</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>-45.3910326379371,170.8613270417689</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>-45.39109190634158,170.86041572928323</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:52+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>-45.39114396769438,170.86418252509145</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>-45.39114677351435,170.86318285271432</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>-45.39109896737065,170.86226207260833</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>-45.39097235749281,170.86131693851445</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>-45.3909257644404,170.86037767056857</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>-45.39148541294745,170.86398303758563</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>-45.39120096646425,170.86316459478735</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>-45.391122002759126,170.86226212179304</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>-45.39109525453467,170.8613375365929</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>-45.39115549762032,170.86043029641823</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>-45.39136036650258,170.86405609559554</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>-45.3909572294818,170.86324671092612</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>-45.39080940533151,170.86226145431533</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr"/>
+      <c r="F446" t="inlineStr"/>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0488/nzd0488.xlsx
+++ b/data/nzd0488/nzd0488.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G446"/>
+  <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11709,6 +11709,77 @@
       <c r="E446" t="inlineStr"/>
       <c r="F446" t="inlineStr"/>
       <c r="G446" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:13:36+00:00</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr"/>
+      <c r="C447" t="n">
+        <v>332.21</v>
+      </c>
+      <c r="D447" t="n">
+        <v>331.52</v>
+      </c>
+      <c r="E447" t="n">
+        <v>299.06</v>
+      </c>
+      <c r="F447" t="inlineStr"/>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr"/>
+      <c r="C448" t="n">
+        <v>325.02</v>
+      </c>
+      <c r="D448" t="n">
+        <v>322.63</v>
+      </c>
+      <c r="E448" t="n">
+        <v>297.6614285714285</v>
+      </c>
+      <c r="F448" t="inlineStr"/>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>286.9952941176471</v>
+      </c>
+      <c r="C449" t="n">
+        <v>290.35</v>
+      </c>
+      <c r="D449" t="inlineStr"/>
+      <c r="E449" t="n">
+        <v>272.7528571428572</v>
+      </c>
+      <c r="F449" t="n">
+        <v>286.3114285714286</v>
+      </c>
+      <c r="G449" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11725,7 +11796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B580"/>
+  <dimension ref="A1:B583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17533,6 +17604,36 @@
       </c>
       <c r="B580" t="n">
         <v>-0.9</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -17706,28 +17807,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.482468161255932</v>
+        <v>1.468790792888909</v>
       </c>
       <c r="J2" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K2" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1083881023024903</v>
+        <v>0.1070576948239771</v>
       </c>
       <c r="M2" t="n">
-        <v>23.26253403642105</v>
+        <v>23.25802335928537</v>
       </c>
       <c r="N2" t="n">
-        <v>851.681893320991</v>
+        <v>850.4365835120745</v>
       </c>
       <c r="O2" t="n">
-        <v>29.1835894523102</v>
+        <v>29.16224585850813</v>
       </c>
       <c r="P2" t="n">
-        <v>270.1107289942539</v>
+        <v>270.2630095784872</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17784,28 +17885,28 @@
         <v>0.0266</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4784854840472278</v>
+        <v>0.4911887804644259</v>
       </c>
       <c r="J3" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K3" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03801076709134732</v>
+        <v>0.0401130332538554</v>
       </c>
       <c r="M3" t="n">
-        <v>12.57670514030883</v>
+        <v>12.62370137162215</v>
       </c>
       <c r="N3" t="n">
-        <v>262.5455281592798</v>
+        <v>263.5985925476548</v>
       </c>
       <c r="O3" t="n">
-        <v>16.20325671460154</v>
+        <v>16.23571964982319</v>
       </c>
       <c r="P3" t="n">
-        <v>295.8645047536879</v>
+        <v>295.7187773458867</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17862,28 +17963,28 @@
         <v>0.0254</v>
       </c>
       <c r="I4" t="n">
-        <v>0.390869391389199</v>
+        <v>0.4132552068316369</v>
       </c>
       <c r="J4" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K4" t="n">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01888271623623372</v>
+        <v>0.02112973768883841</v>
       </c>
       <c r="M4" t="n">
-        <v>14.37338925150451</v>
+        <v>14.38973613139465</v>
       </c>
       <c r="N4" t="n">
-        <v>369.8693606510764</v>
+        <v>370.4372368699645</v>
       </c>
       <c r="O4" t="n">
-        <v>19.23198795369517</v>
+        <v>19.24674613720367</v>
       </c>
       <c r="P4" t="n">
-        <v>295.3699113502749</v>
+        <v>295.1177651164157</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17940,28 +18041,28 @@
         <v>0.0375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4020095072449587</v>
+        <v>0.3909826123987088</v>
       </c>
       <c r="J5" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K5" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0313613100740785</v>
+        <v>0.02994266176325266</v>
       </c>
       <c r="M5" t="n">
-        <v>11.57052112080819</v>
+        <v>11.55869701571989</v>
       </c>
       <c r="N5" t="n">
-        <v>227.555992037434</v>
+        <v>227.338942247061</v>
       </c>
       <c r="O5" t="n">
-        <v>15.08495913277308</v>
+        <v>15.07776317120882</v>
       </c>
       <c r="P5" t="n">
-        <v>286.7665579511656</v>
+        <v>286.8931366292861</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18018,28 +18119,28 @@
         <v>0.1134</v>
       </c>
       <c r="I6" t="n">
-        <v>1.378656933066723</v>
+        <v>1.379091607612176</v>
       </c>
       <c r="J6" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K6" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04806122801089341</v>
+        <v>0.04836264935660672</v>
       </c>
       <c r="M6" t="n">
-        <v>32.07433285442807</v>
+        <v>31.9855219471054</v>
       </c>
       <c r="N6" t="n">
-        <v>1639.805837103999</v>
+        <v>1635.201026864621</v>
       </c>
       <c r="O6" t="n">
-        <v>40.49451613618811</v>
+        <v>40.43761895642003</v>
       </c>
       <c r="P6" t="n">
-        <v>250.0948974777407</v>
+        <v>250.0898488678003</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18077,7 +18178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G446"/>
+  <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33039,6 +33140,97 @@
         </is>
       </c>
     </row>
+    <row r="447">
+      <c r="A447" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:13:36+00:00</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr"/>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>-45.39118643329876,170.86316949110093</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>-45.39114611793135,170.86226217328291</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>-45.39091594510653,170.86130748358025</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr"/>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr"/>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>-45.39112348542803,170.86319069859732</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>-45.3910661239455,170.86226200248117</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>-45.39090344731818,170.86130538890484</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr"/>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>-45.39104162703513,170.8642423165298</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>-45.390819952294784,170.8632929599187</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr"/>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>-45.39068086157202,170.86126808285266</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>-45.39091679237126,170.86037561531083</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0488/nzd0488.xlsx
+++ b/data/nzd0488/nzd0488.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0488/nzd0488.xlsx
+++ b/data/nzd0488/nzd0488.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G449"/>
+  <dimension ref="A1:G450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11772,7 +11772,9 @@
       <c r="C449" t="n">
         <v>290.35</v>
       </c>
-      <c r="D449" t="inlineStr"/>
+      <c r="D449" t="n">
+        <v>278.4</v>
+      </c>
       <c r="E449" t="n">
         <v>272.7528571428572</v>
       </c>
@@ -11782,6 +11784,29 @@
       <c r="G449" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:13:42+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr"/>
+      <c r="C450" t="n">
+        <v>253.48</v>
+      </c>
+      <c r="D450" t="n">
+        <v>291.17</v>
+      </c>
+      <c r="E450" t="n">
+        <v>282.76</v>
+      </c>
+      <c r="F450" t="inlineStr"/>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B583"/>
+  <dimension ref="A1:B584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17634,6 +17659,16 @@
       </c>
       <c r="B583" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -17810,7 +17845,7 @@
         <v>1.468790792888909</v>
       </c>
       <c r="J2" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K2" t="n">
         <v>323</v>
@@ -17885,28 +17920,28 @@
         <v>0.0266</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4911887804644259</v>
+        <v>0.460831487853784</v>
       </c>
       <c r="J3" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K3" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0401130332538554</v>
+        <v>0.03463030755448226</v>
       </c>
       <c r="M3" t="n">
-        <v>12.62370137162215</v>
+        <v>12.76072119468858</v>
       </c>
       <c r="N3" t="n">
-        <v>263.5985925476548</v>
+        <v>270.9683621056181</v>
       </c>
       <c r="O3" t="n">
-        <v>16.23571964982319</v>
+        <v>16.4611166724988</v>
       </c>
       <c r="P3" t="n">
-        <v>295.7187773458867</v>
+        <v>296.0687174452125</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17963,28 +17998,28 @@
         <v>0.0254</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4132552068316369</v>
+        <v>0.3917610686268168</v>
       </c>
       <c r="J4" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K4" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02112973768883841</v>
+        <v>0.01909324189015338</v>
       </c>
       <c r="M4" t="n">
-        <v>14.38973613139465</v>
+        <v>14.44099557330949</v>
       </c>
       <c r="N4" t="n">
-        <v>370.4372368699645</v>
+        <v>370.9623973767051</v>
       </c>
       <c r="O4" t="n">
-        <v>19.24674613720367</v>
+        <v>19.26038414405863</v>
       </c>
       <c r="P4" t="n">
-        <v>295.1177651164157</v>
+        <v>295.3604827099518</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18041,28 +18076,28 @@
         <v>0.0375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3909826123987088</v>
+        <v>0.3838513487921964</v>
       </c>
       <c r="J5" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K5" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02994266176325266</v>
+        <v>0.02896372726199214</v>
       </c>
       <c r="M5" t="n">
-        <v>11.55869701571989</v>
+        <v>11.56998933404282</v>
       </c>
       <c r="N5" t="n">
-        <v>227.338942247061</v>
+        <v>227.273114228906</v>
       </c>
       <c r="O5" t="n">
-        <v>15.07776317120882</v>
+        <v>15.07558006276727</v>
       </c>
       <c r="P5" t="n">
-        <v>286.8931366292861</v>
+        <v>286.9750541038201</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18122,7 +18157,7 @@
         <v>1.379091607612176</v>
       </c>
       <c r="J6" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K6" t="n">
         <v>356</v>
@@ -18178,7 +18213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G449"/>
+  <dimension ref="A1:G450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33214,7 +33249,11 @@
           <t>-45.390819952294784,170.8632929599187</t>
         </is>
       </c>
-      <c r="D449" t="inlineStr"/>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>-45.39066813360455,170.8622611526447</t>
+        </is>
+      </c>
       <c r="E449" t="inlineStr">
         <is>
           <t>-45.39068086157202,170.86126808285266</t>
@@ -33228,6 +33267,35 @@
       <c r="G449" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:13:42+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr"/>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>-45.390497158194954,170.86340170901303</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>-45.3907830406082,170.86226139801715</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>-45.39077028650797,170.86128307071388</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr"/>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0488/nzd0488.xlsx
+++ b/data/nzd0488/nzd0488.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G450"/>
+  <dimension ref="A1:G451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11807,6 +11807,29 @@
       <c r="G450" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr"/>
+      <c r="C451" t="n">
+        <v>261.55</v>
+      </c>
+      <c r="D451" t="n">
+        <v>292.25</v>
+      </c>
+      <c r="E451" t="n">
+        <v>286.9557142857143</v>
+      </c>
+      <c r="F451" t="inlineStr"/>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -11821,7 +11844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B584"/>
+  <dimension ref="A1:B585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17669,6 +17692,16 @@
       </c>
       <c r="B584" t="n">
         <v>0.21</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -17845,7 +17878,7 @@
         <v>1.468790792888909</v>
       </c>
       <c r="J2" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K2" t="n">
         <v>323</v>
@@ -17920,28 +17953,28 @@
         <v>0.0266</v>
       </c>
       <c r="I3" t="n">
-        <v>0.460831487853784</v>
+        <v>0.4350536855289588</v>
       </c>
       <c r="J3" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K3" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03463030755448226</v>
+        <v>0.0305086729374292</v>
       </c>
       <c r="M3" t="n">
-        <v>12.76072119468858</v>
+        <v>12.87254473815106</v>
       </c>
       <c r="N3" t="n">
-        <v>270.9683621056181</v>
+        <v>276.0072699850405</v>
       </c>
       <c r="O3" t="n">
-        <v>16.4611166724988</v>
+        <v>16.61346652523309</v>
       </c>
       <c r="P3" t="n">
-        <v>296.0687174452125</v>
+        <v>296.3673245001356</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17998,28 +18031,28 @@
         <v>0.0254</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3917610686268168</v>
+        <v>0.384936251021666</v>
       </c>
       <c r="J4" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K4" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01909324189015338</v>
+        <v>0.01851496926232665</v>
       </c>
       <c r="M4" t="n">
-        <v>14.44099557330949</v>
+        <v>14.44372500828833</v>
       </c>
       <c r="N4" t="n">
-        <v>370.9623973767051</v>
+        <v>370.467083979562</v>
       </c>
       <c r="O4" t="n">
-        <v>19.26038414405863</v>
+        <v>19.24752150224963</v>
       </c>
       <c r="P4" t="n">
-        <v>295.3604827099518</v>
+        <v>295.4379812852079</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18076,28 +18109,28 @@
         <v>0.0375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3838513487921964</v>
+        <v>0.3788336800986501</v>
       </c>
       <c r="J5" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K5" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02896372726199214</v>
+        <v>0.02833543100520231</v>
       </c>
       <c r="M5" t="n">
-        <v>11.56998933404282</v>
+        <v>11.56918716184921</v>
       </c>
       <c r="N5" t="n">
-        <v>227.273114228906</v>
+        <v>226.9573060794671</v>
       </c>
       <c r="O5" t="n">
-        <v>15.07558006276727</v>
+        <v>15.06510225917724</v>
       </c>
       <c r="P5" t="n">
-        <v>286.9750541038201</v>
+        <v>287.0329756068714</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18157,7 +18190,7 @@
         <v>1.379091607612176</v>
       </c>
       <c r="J6" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K6" t="n">
         <v>356</v>
@@ -18213,7 +18246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G450"/>
+  <dimension ref="A1:G451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33299,6 +33332,35 @@
         </is>
       </c>
     </row>
+    <row r="451">
+      <c r="A451" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr"/>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>-45.39056781045524,170.86337790643412</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>-45.39079275866321,170.86226141876875</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>-45.3908077798744,170.86128935471618</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr"/>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0488/nzd0488.xlsx
+++ b/data/nzd0488/nzd0488.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G451"/>
+  <dimension ref="A1:G452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11828,6 +11828,29 @@
       </c>
       <c r="F451" t="inlineStr"/>
       <c r="G451" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr"/>
+      <c r="C452" t="n">
+        <v>298.86</v>
+      </c>
+      <c r="D452" t="n">
+        <v>302.87</v>
+      </c>
+      <c r="E452" t="n">
+        <v>291.6971428571428</v>
+      </c>
+      <c r="F452" t="inlineStr"/>
+      <c r="G452" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11844,7 +11867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B585"/>
+  <dimension ref="A1:B586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17702,6 +17725,16 @@
       </c>
       <c r="B585" t="n">
         <v>0.29</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -17878,7 +17911,7 @@
         <v>1.468790792888909</v>
       </c>
       <c r="J2" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K2" t="n">
         <v>323</v>
@@ -17953,28 +17986,28 @@
         <v>0.0266</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4350536855289588</v>
+        <v>0.430191998372002</v>
       </c>
       <c r="J3" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K3" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0305086729374292</v>
+        <v>0.02998191848717924</v>
       </c>
       <c r="M3" t="n">
-        <v>12.87254473815106</v>
+        <v>12.86564260511514</v>
       </c>
       <c r="N3" t="n">
-        <v>276.0072699850405</v>
+        <v>275.4713466100991</v>
       </c>
       <c r="O3" t="n">
-        <v>16.61346652523309</v>
+        <v>16.59732950236571</v>
       </c>
       <c r="P3" t="n">
-        <v>296.3673245001356</v>
+        <v>296.4237506880864</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18031,28 +18064,28 @@
         <v>0.0254</v>
       </c>
       <c r="I4" t="n">
-        <v>0.384936251021666</v>
+        <v>0.3836267103455001</v>
       </c>
       <c r="J4" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K4" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01851496926232665</v>
+        <v>0.01848095057551402</v>
       </c>
       <c r="M4" t="n">
-        <v>14.44372500828833</v>
+        <v>14.41488500385427</v>
       </c>
       <c r="N4" t="n">
-        <v>370.467083979562</v>
+        <v>369.552484402457</v>
       </c>
       <c r="O4" t="n">
-        <v>19.24752150224963</v>
+        <v>19.22374792808252</v>
       </c>
       <c r="P4" t="n">
-        <v>295.4379812852079</v>
+        <v>295.4528806196554</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18109,28 +18142,28 @@
         <v>0.0375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3788336800986501</v>
+        <v>0.3762401605215105</v>
       </c>
       <c r="J5" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K5" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02833543100520231</v>
+        <v>0.02808253468124333</v>
       </c>
       <c r="M5" t="n">
-        <v>11.56918716184921</v>
+        <v>11.55506759089046</v>
       </c>
       <c r="N5" t="n">
-        <v>226.9573060794671</v>
+        <v>226.4670298601365</v>
       </c>
       <c r="O5" t="n">
-        <v>15.06510225917724</v>
+        <v>15.04882154389959</v>
       </c>
       <c r="P5" t="n">
-        <v>287.0329756068714</v>
+        <v>287.0629719303352</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18190,7 +18223,7 @@
         <v>1.379091607612176</v>
       </c>
       <c r="J6" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K6" t="n">
         <v>356</v>
@@ -18246,7 +18279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G451"/>
+  <dimension ref="A1:G452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33361,6 +33394,35 @@
         </is>
       </c>
     </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr"/>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>-45.39089445668967,170.86326785925107</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>-45.390888319536806,170.8622616228232</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>-45.39085014980347,170.86129645605425</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr"/>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0488/nzd0488.xlsx
+++ b/data/nzd0488/nzd0488.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G452"/>
+  <dimension ref="A1:G456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11851,6 +11851,110 @@
       </c>
       <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr"/>
+      <c r="C453" t="n">
+        <v>316.05</v>
+      </c>
+      <c r="D453" t="n">
+        <v>310.45</v>
+      </c>
+      <c r="E453" t="n">
+        <v>317.3171428571428</v>
+      </c>
+      <c r="F453" t="n">
+        <v>293.8285714285714</v>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:23+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>260.6317647058823</v>
+      </c>
+      <c r="C454" t="n">
+        <v>305.05</v>
+      </c>
+      <c r="D454" t="n">
+        <v>308.08</v>
+      </c>
+      <c r="E454" t="n">
+        <v>294.7028571428572</v>
+      </c>
+      <c r="F454" t="inlineStr"/>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>326.6452941176471</v>
+      </c>
+      <c r="C455" t="n">
+        <v>309.41</v>
+      </c>
+      <c r="D455" t="n">
+        <v>307.4</v>
+      </c>
+      <c r="E455" t="n">
+        <v>294.1528571428572</v>
+      </c>
+      <c r="F455" t="n">
+        <v>299.2614285714285</v>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>295.3958823529412</v>
+      </c>
+      <c r="C456" t="n">
+        <v>308.86</v>
+      </c>
+      <c r="D456" t="n">
+        <v>309.52</v>
+      </c>
+      <c r="E456" t="n">
+        <v>292.6342857142857</v>
+      </c>
+      <c r="F456" t="n">
+        <v>277.3171428571428</v>
+      </c>
+      <c r="G456" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11867,7 +11971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B586"/>
+  <dimension ref="A1:B590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17735,6 +17839,46 @@
       </c>
       <c r="B586" t="n">
         <v>0.52</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -17908,28 +18052,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.468790792888909</v>
+        <v>1.441319139454363</v>
       </c>
       <c r="J2" t="n">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K2" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1070576948239771</v>
+        <v>0.1043924554705488</v>
       </c>
       <c r="M2" t="n">
-        <v>23.25802335928537</v>
+        <v>23.2884113978067</v>
       </c>
       <c r="N2" t="n">
-        <v>850.4365835120745</v>
+        <v>851.1193992111002</v>
       </c>
       <c r="O2" t="n">
-        <v>29.16224585850813</v>
+        <v>29.17395069597363</v>
       </c>
       <c r="P2" t="n">
-        <v>270.2630095784872</v>
+        <v>270.572378074083</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17986,28 +18130,28 @@
         <v>0.0266</v>
       </c>
       <c r="I3" t="n">
-        <v>0.430191998372002</v>
+        <v>0.4349899572212174</v>
       </c>
       <c r="J3" t="n">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K3" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02998191848717924</v>
+        <v>0.03123746051149201</v>
       </c>
       <c r="M3" t="n">
-        <v>12.86564260511514</v>
+        <v>12.76172245589294</v>
       </c>
       <c r="N3" t="n">
-        <v>275.4713466100991</v>
+        <v>272.7586763502104</v>
       </c>
       <c r="O3" t="n">
-        <v>16.59732950236571</v>
+        <v>16.51540724142794</v>
       </c>
       <c r="P3" t="n">
-        <v>296.4237506880864</v>
+        <v>296.367877134628</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18064,28 +18208,28 @@
         <v>0.0254</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3836267103455001</v>
+        <v>0.3905181098113365</v>
       </c>
       <c r="J4" t="n">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K4" t="n">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01848095057551402</v>
+        <v>0.01950761591117678</v>
       </c>
       <c r="M4" t="n">
-        <v>14.41488500385427</v>
+        <v>14.29913685525183</v>
       </c>
       <c r="N4" t="n">
-        <v>369.552484402457</v>
+        <v>366.0027821607634</v>
       </c>
       <c r="O4" t="n">
-        <v>19.22374792808252</v>
+        <v>19.13119918250718</v>
       </c>
       <c r="P4" t="n">
-        <v>295.4528806196554</v>
+        <v>295.3741430137807</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18142,28 +18286,28 @@
         <v>0.0375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3762401605215105</v>
+        <v>0.3818118001823408</v>
       </c>
       <c r="J5" t="n">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K5" t="n">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02808253468124333</v>
+        <v>0.02930030368079573</v>
       </c>
       <c r="M5" t="n">
-        <v>11.55506759089046</v>
+        <v>11.5118778236513</v>
       </c>
       <c r="N5" t="n">
-        <v>226.4670298601365</v>
+        <v>225.358640706826</v>
       </c>
       <c r="O5" t="n">
-        <v>15.04882154389959</v>
+        <v>15.01194993019981</v>
       </c>
       <c r="P5" t="n">
-        <v>287.0629719303352</v>
+        <v>286.9984610792401</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18220,28 +18364,28 @@
         <v>0.1134</v>
       </c>
       <c r="I6" t="n">
-        <v>1.379091607612176</v>
+        <v>1.386730796380282</v>
       </c>
       <c r="J6" t="n">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K6" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04836264935660672</v>
+        <v>0.04971206452213084</v>
       </c>
       <c r="M6" t="n">
-        <v>31.9855219471054</v>
+        <v>31.78923976477302</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.201026864621</v>
+        <v>1622.406996770993</v>
       </c>
       <c r="O6" t="n">
-        <v>40.43761895642003</v>
+        <v>40.27911365423764</v>
       </c>
       <c r="P6" t="n">
-        <v>250.0898488678003</v>
+        <v>250.0002691561651</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18279,7 +18423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G452"/>
+  <dimension ref="A1:G456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33423,6 +33567,146 @@
         </is>
       </c>
     </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr"/>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>-45.391044953793084,170.8632171562807</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>-45.390956525884484,170.86226176846338</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>-45.39107909294203,170.86133482783512</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>-45.39098356893012,170.8603909120244</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:23+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>-45.39082226186843,170.86437047746887</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>-45.39094864965836,170.86324960149506</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>-45.39093520015316,170.8622617229271</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>-45.390877009197816,170.86130095778114</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr"/>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>-45.391371545700075,170.86404956419776</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>-45.39098682111692,170.86323674140579</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>-45.39092908137792,170.86226170986177</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>-45.39087209433718,170.8613001340333</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>-45.391031830284405,170.8604019674236</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>-45.39111152645827,170.8642014785639</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>-45.3909820059101,170.86323836366574</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>-45.39094815755955,170.86226175059474</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>-45.39085852421541,170.8612978596341</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>-45.390836894000074,170.86035731278727</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0488/nzd0488.xlsx
+++ b/data/nzd0488/nzd0488.xlsx
@@ -18043,13 +18043,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0528</v>
+        <v>0.0332</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2</v>
+        <v>0.0526</v>
       </c>
       <c r="I2" t="n">
         <v>1.441344415616384</v>
@@ -18121,13 +18121,13 @@
         <v>0.7489085235203626</v>
       </c>
       <c r="F3" t="n">
-        <v>0.025</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0217</v>
+        <v>0.0345</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0266</v>
+        <v>0.0465</v>
       </c>
       <c r="I3" t="n">
         <v>0.4349899572212175</v>
@@ -18199,13 +18199,13 @@
         <v>0.5017392319699777</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.035</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0198</v>
+        <v>0.0328</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0254</v>
+        <v>0.0432</v>
       </c>
       <c r="I4" t="n">
         <v>0.3905181098113365</v>
@@ -18277,13 +18277,13 @@
         <v>0.2510045962005661</v>
       </c>
       <c r="F5" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0296</v>
+        <v>0.0351</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0375</v>
+        <v>0.0544</v>
       </c>
       <c r="I5" t="n">
         <v>0.381793746306274</v>
@@ -18355,13 +18355,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0494</v>
+        <v>0.033</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1134</v>
+        <v>0.0595</v>
       </c>
       <c r="I6" t="n">
         <v>1.386693796480099</v>

--- a/data/nzd0488/nzd0488.xlsx
+++ b/data/nzd0488/nzd0488.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G457"/>
+  <dimension ref="A1:G458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12772,6 +12772,33 @@
         <v>264.46</v>
       </c>
       <c r="G457" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:52+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>297.3</v>
+      </c>
+      <c r="C458" t="n">
+        <v>300.85</v>
+      </c>
+      <c r="D458" t="n">
+        <v>304.17</v>
+      </c>
+      <c r="E458" t="n">
+        <v>294.72</v>
+      </c>
+      <c r="F458" t="n">
+        <v>268.61</v>
+      </c>
+      <c r="G458" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -12788,7 +12815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B592"/>
+  <dimension ref="A1:B593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18716,6 +18743,16 @@
       </c>
       <c r="B592" t="n">
         <v>0.44</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -18883,34 +18920,34 @@
         <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0331</v>
+        <v>0.0332</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0524</v>
+        <v>0.0527</v>
       </c>
       <c r="I2" t="n">
-        <v>1.430814305736298</v>
+        <v>1.425449437986427</v>
       </c>
       <c r="J2" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K2" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2355099712403986</v>
+        <v>0.2347848873890717</v>
       </c>
       <c r="M2" t="n">
-        <v>13.1878779966392</v>
+        <v>13.19187258940751</v>
       </c>
       <c r="N2" t="n">
-        <v>301.9010297519314</v>
+        <v>301.5295295009147</v>
       </c>
       <c r="O2" t="n">
-        <v>17.37529941474194</v>
+        <v>17.3646056534813</v>
       </c>
       <c r="P2" t="n">
-        <v>271.3674339816257</v>
+        <v>271.4312068052096</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18961,34 +18998,34 @@
         <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0345</v>
+        <v>0.0346</v>
       </c>
       <c r="H3" t="n">
         <v>0.0465</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5209266498642201</v>
+        <v>0.5170476835961192</v>
       </c>
       <c r="J3" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K3" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1247545093007325</v>
+        <v>0.1234161553612172</v>
       </c>
       <c r="M3" t="n">
-        <v>7.469882176323211</v>
+        <v>7.475080814797917</v>
       </c>
       <c r="N3" t="n">
-        <v>88.12268817182168</v>
+        <v>88.08730757268737</v>
       </c>
       <c r="O3" t="n">
-        <v>9.387368543517489</v>
+        <v>9.38548387525584</v>
       </c>
       <c r="P3" t="n">
-        <v>295.7040104067311</v>
+        <v>295.7496035339844</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19045,28 +19082,28 @@
         <v>0.0431</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5189325971642315</v>
+        <v>0.5169780175523883</v>
       </c>
       <c r="J4" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K4" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1326968896304355</v>
+        <v>0.1322813427938752</v>
       </c>
       <c r="M4" t="n">
-        <v>7.238196824710836</v>
+        <v>7.234166291847595</v>
       </c>
       <c r="N4" t="n">
-        <v>81.46911905660333</v>
+        <v>81.33082681349481</v>
       </c>
       <c r="O4" t="n">
-        <v>9.026024543319354</v>
+        <v>9.018360539116564</v>
       </c>
       <c r="P4" t="n">
-        <v>294.8507517198632</v>
+        <v>294.873725726547</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19123,28 +19160,28 @@
         <v>0.0542</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3934542050310795</v>
+        <v>0.3918542196229068</v>
       </c>
       <c r="J5" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K5" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L5" t="n">
-        <v>0.116836086534521</v>
+        <v>0.1164011786404672</v>
       </c>
       <c r="M5" t="n">
-        <v>5.903517664672918</v>
+        <v>5.899607768868973</v>
       </c>
       <c r="N5" t="n">
-        <v>54.16436441071568</v>
+        <v>54.07263064095188</v>
       </c>
       <c r="O5" t="n">
-        <v>7.359644312785481</v>
+        <v>7.353409456908535</v>
       </c>
       <c r="P5" t="n">
-        <v>287.9158365800013</v>
+        <v>287.9346427085615</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -19199,34 +19236,34 @@
         <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0331</v>
+        <v>0.0332</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0596</v>
+        <v>0.0601</v>
       </c>
       <c r="I6" t="n">
-        <v>1.031858719230565</v>
+        <v>1.024417923542436</v>
       </c>
       <c r="J6" t="n">
+        <v>457</v>
+      </c>
+      <c r="K6" t="n">
         <v>456</v>
       </c>
-      <c r="K6" t="n">
-        <v>455</v>
-      </c>
       <c r="L6" t="n">
-        <v>0.08498700575721985</v>
+        <v>0.08412527728267616</v>
       </c>
       <c r="M6" t="n">
-        <v>18.52426833522803</v>
+        <v>18.52700012837641</v>
       </c>
       <c r="N6" t="n">
-        <v>527.4888152176318</v>
+        <v>526.9067421792281</v>
       </c>
       <c r="O6" t="n">
-        <v>22.96712466151633</v>
+        <v>22.95444928939111</v>
       </c>
       <c r="P6" t="n">
-        <v>257.8014187576042</v>
+        <v>257.8891949063972</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -19268,7 +19305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G457"/>
+  <dimension ref="A1:G458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36169,6 +36206,43 @@
         </is>
       </c>
     </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:52+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>-45.39112737019459,170.86419222202016</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>-45.39091187898539,170.86326198963724</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>-45.39090001719543,170.86226164780123</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>-45.39087716238827,170.86130098345643</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>-45.39075954638404,170.86033959461767</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
